--- a/pred_ohlcv/54_21/2019-10-11 TMTG ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-11 TMTG ohlcv.xlsx
@@ -2914,7 +2914,7 @@
         <v>-149350534.6306</v>
       </c>
       <c r="H97">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>-149934212.758</v>
       </c>
       <c r="H101">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>-119794973.2142349</v>
       </c>
       <c r="H116">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>-119794973.2142349</v>
       </c>
       <c r="H117">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>-120000110.9669349</v>
       </c>
       <c r="H118">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>-119820493.9633349</v>
       </c>
       <c r="H119">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>-121547938.112956</v>
       </c>
       <c r="H121">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>-121547938.112956</v>
       </c>
       <c r="H122">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>-121773646.833956</v>
       </c>
       <c r="H125">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>-123738131.153856</v>
       </c>
       <c r="H126">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -9128,7 +9128,7 @@
         <v>-167692308.4691931</v>
       </c>
       <c r="H336">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="337" spans="1:8">
@@ -9154,7 +9154,7 @@
         <v>-167692181.5446931</v>
       </c>
       <c r="H337">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="338" spans="1:8">
@@ -9180,7 +9180,7 @@
         <v>-167692181.5446931</v>
       </c>
       <c r="H338">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="339" spans="1:8">
@@ -9232,7 +9232,7 @@
         <v>-167885674.3150931</v>
       </c>
       <c r="H340">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="341" spans="1:8">
@@ -9414,7 +9414,7 @@
         <v>-168695925.3076931</v>
       </c>
       <c r="H347">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="348" spans="1:8">
@@ -9440,7 +9440,7 @@
         <v>-168695925.3076931</v>
       </c>
       <c r="H348">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="349" spans="1:8">
@@ -9466,7 +9466,7 @@
         <v>-168695925.3076931</v>
       </c>
       <c r="H349">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="350" spans="1:8">
@@ -9492,7 +9492,7 @@
         <v>-168695925.3076931</v>
       </c>
       <c r="H350">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="351" spans="1:8">
@@ -9518,7 +9518,7 @@
         <v>-168010065.2455931</v>
       </c>
       <c r="H351">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="352" spans="1:8">
@@ -9700,7 +9700,7 @@
         <v>-168205197.5365931</v>
       </c>
       <c r="H358">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="359" spans="1:8">
@@ -9934,7 +9934,7 @@
         <v>-168205197.5365931</v>
       </c>
       <c r="H367">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="368" spans="1:8">
@@ -9986,7 +9986,7 @@
         <v>-168205197.5365931</v>
       </c>
       <c r="H369">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="370" spans="1:8">
@@ -10064,7 +10064,7 @@
         <v>-168205332.3960931</v>
       </c>
       <c r="H372">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="373" spans="1:8">
@@ -10090,7 +10090,7 @@
         <v>-168205332.3960931</v>
       </c>
       <c r="H373">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="374" spans="1:8">
@@ -10116,7 +10116,7 @@
         <v>-168205202.1393931</v>
       </c>
       <c r="H374">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="375" spans="1:8">
@@ -10142,7 +10142,7 @@
         <v>-168215075.5006931</v>
       </c>
       <c r="H375">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="376" spans="1:8">
@@ -10168,7 +10168,7 @@
         <v>-168215075.5006931</v>
       </c>
       <c r="H376">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="377" spans="1:8">
@@ -10220,7 +10220,7 @@
         <v>-167665608.3343931</v>
       </c>
       <c r="H378">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="379" spans="1:8">
@@ -10246,7 +10246,7 @@
         <v>-167665608.3343931</v>
       </c>
       <c r="H379">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="380" spans="1:8">
@@ -10272,7 +10272,7 @@
         <v>-167665608.3343931</v>
       </c>
       <c r="H380">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="381" spans="1:8">
@@ -10350,7 +10350,7 @@
         <v>-167665608.3343931</v>
       </c>
       <c r="H383">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="384" spans="1:8">
@@ -10376,7 +10376,7 @@
         <v>-167665608.3343931</v>
       </c>
       <c r="H384">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="385" spans="1:8">
@@ -10402,7 +10402,7 @@
         <v>-167665608.3343931</v>
       </c>
       <c r="H385">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="386" spans="1:8">
@@ -10428,7 +10428,7 @@
         <v>-167665608.3343931</v>
       </c>
       <c r="H386">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="387" spans="1:8">
@@ -10480,7 +10480,7 @@
         <v>-166637293.7632931</v>
       </c>
       <c r="H388">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="389" spans="1:8">
@@ -11416,7 +11416,7 @@
         <v>-168040660.2457591</v>
       </c>
       <c r="H424">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="425" spans="1:8">
@@ -11442,7 +11442,7 @@
         <v>-168040660.2457591</v>
       </c>
       <c r="H425">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="426" spans="1:8">
@@ -11468,7 +11468,7 @@
         <v>-168040660.2457591</v>
       </c>
       <c r="H426">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="427" spans="1:8">
@@ -11494,7 +11494,7 @@
         <v>-168040660.2457591</v>
       </c>
       <c r="H427">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="428" spans="1:8">
@@ -11520,7 +11520,7 @@
         <v>-169269612.2091591</v>
       </c>
       <c r="H428">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="429" spans="1:8">
@@ -11546,7 +11546,7 @@
         <v>-169269612.2091591</v>
       </c>
       <c r="H429">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="430" spans="1:8">
@@ -11572,7 +11572,7 @@
         <v>-169269500.0659591</v>
       </c>
       <c r="H430">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="431" spans="1:8">
@@ -11598,7 +11598,7 @@
         <v>-169375965.7084591</v>
       </c>
       <c r="H431">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="432" spans="1:8">
@@ -11962,7 +11962,7 @@
         <v>-165233102.8550591</v>
       </c>
       <c r="H445">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="446" spans="1:8">
@@ -11988,7 +11988,7 @@
         <v>-165233102.8550591</v>
       </c>
       <c r="H446">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="447" spans="1:8">
@@ -12014,7 +12014,7 @@
         <v>-165233102.8550591</v>
       </c>
       <c r="H447">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="448" spans="1:8">
@@ -12040,7 +12040,7 @@
         <v>-165233795.1118591</v>
       </c>
       <c r="H448">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="449" spans="1:8">
@@ -12066,7 +12066,7 @@
         <v>-165233795.1118591</v>
       </c>
       <c r="H449">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="450" spans="1:8">
@@ -12092,7 +12092,7 @@
         <v>-164301810.2013591</v>
       </c>
       <c r="H450">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="451" spans="1:8">
@@ -12118,7 +12118,7 @@
         <v>-164301810.2013591</v>
       </c>
       <c r="H451">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="452" spans="1:8">
@@ -12170,7 +12170,7 @@
         <v>-164301797.2761591</v>
       </c>
       <c r="H453">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="454" spans="1:8">
@@ -13470,7 +13470,7 @@
         <v>-179703041.6793829</v>
       </c>
       <c r="H503">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="504" spans="1:8">

--- a/pred_ohlcv/54_21/2019-10-11 TMTG ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-11 TMTG ohlcv.xlsx
@@ -3226,7 +3226,7 @@
         <v>-149934208.0257001</v>
       </c>
       <c r="H109">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>-119794973.2142349</v>
       </c>
       <c r="H116">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>-119794973.2142349</v>
       </c>
       <c r="H117">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>-119820493.9633349</v>
       </c>
       <c r="H119">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>-118748825.042256</v>
       </c>
       <c r="H120">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>-121547938.112956</v>
       </c>
       <c r="H121">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>-121547938.112956</v>
       </c>
       <c r="H122">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>-122536937.078056</v>
       </c>
       <c r="H123">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>-123738131.153856</v>
       </c>
       <c r="H126">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -4812,7 +4812,7 @@
         <v>-124008466.4318931</v>
       </c>
       <c r="H170">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -4890,7 +4890,7 @@
         <v>-132402108.0604931</v>
       </c>
       <c r="H173">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -4916,7 +4916,7 @@
         <v>-132561156.7961931</v>
       </c>
       <c r="H174">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -4942,7 +4942,7 @@
         <v>-132561146.7961931</v>
       </c>
       <c r="H175">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -4968,7 +4968,7 @@
         <v>-132561146.7961931</v>
       </c>
       <c r="H176">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -5098,7 +5098,7 @@
         <v>-133335600.7718931</v>
       </c>
       <c r="H181">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5124,7 +5124,7 @@
         <v>-133335727.7763931</v>
       </c>
       <c r="H182">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5150,7 +5150,7 @@
         <v>-133335717.7763931</v>
       </c>
       <c r="H183">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5176,7 +5176,7 @@
         <v>-133335838.9894931</v>
       </c>
       <c r="H184">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -5228,7 +5228,7 @@
         <v>-133282808.9894931</v>
       </c>
       <c r="H186">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -5254,7 +5254,7 @@
         <v>-133388898.9894931</v>
       </c>
       <c r="H187">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -5280,7 +5280,7 @@
         <v>-133532970.2694931</v>
       </c>
       <c r="H188">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -5384,7 +5384,7 @@
         <v>-133329435.9531931</v>
       </c>
       <c r="H192">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -5436,7 +5436,7 @@
         <v>-142090677.5912931</v>
       </c>
       <c r="H194">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -9128,7 +9128,7 @@
         <v>-167692308.4691931</v>
       </c>
       <c r="H336">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="337" spans="1:8">
@@ -9154,7 +9154,7 @@
         <v>-167692181.5446931</v>
       </c>
       <c r="H337">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="338" spans="1:8">
@@ -9180,7 +9180,7 @@
         <v>-167692181.5446931</v>
       </c>
       <c r="H338">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="339" spans="1:8">
@@ -9232,7 +9232,7 @@
         <v>-167885674.3150931</v>
       </c>
       <c r="H340">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="341" spans="1:8">
@@ -9258,7 +9258,7 @@
         <v>-167885674.3150931</v>
       </c>
       <c r="H341">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="342" spans="1:8">
@@ -9284,7 +9284,7 @@
         <v>-167885674.3150931</v>
       </c>
       <c r="H342">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="343" spans="1:8">
@@ -9310,7 +9310,7 @@
         <v>-167885674.3150931</v>
       </c>
       <c r="H343">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="344" spans="1:8">
@@ -9336,7 +9336,7 @@
         <v>-167885674.3150931</v>
       </c>
       <c r="H344">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="345" spans="1:8">
@@ -9388,7 +9388,7 @@
         <v>-168982587.3616931</v>
       </c>
       <c r="H346">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="347" spans="1:8">
@@ -9414,7 +9414,7 @@
         <v>-168695925.3076931</v>
       </c>
       <c r="H347">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="348" spans="1:8">
@@ -9440,7 +9440,7 @@
         <v>-168695925.3076931</v>
       </c>
       <c r="H348">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="349" spans="1:8">
@@ -9466,7 +9466,7 @@
         <v>-168695925.3076931</v>
       </c>
       <c r="H349">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="350" spans="1:8">
@@ -9492,7 +9492,7 @@
         <v>-168695925.3076931</v>
       </c>
       <c r="H350">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="351" spans="1:8">
@@ -9518,7 +9518,7 @@
         <v>-168010065.2455931</v>
       </c>
       <c r="H351">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="352" spans="1:8">
@@ -9622,7 +9622,7 @@
         <v>-168205197.5365931</v>
       </c>
       <c r="H355">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="356" spans="1:8">
@@ -9700,7 +9700,7 @@
         <v>-168205197.5365931</v>
       </c>
       <c r="H358">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="359" spans="1:8">
@@ -9726,7 +9726,7 @@
         <v>-168205197.5365931</v>
       </c>
       <c r="H359">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="360" spans="1:8">
@@ -9752,7 +9752,7 @@
         <v>-168205197.5365931</v>
       </c>
       <c r="H360">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="361" spans="1:8">
@@ -9778,7 +9778,7 @@
         <v>-168205197.5365931</v>
       </c>
       <c r="H361">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="362" spans="1:8">
@@ -9804,7 +9804,7 @@
         <v>-168205197.5365931</v>
       </c>
       <c r="H362">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="363" spans="1:8">
@@ -9830,7 +9830,7 @@
         <v>-168205197.5365931</v>
       </c>
       <c r="H363">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="364" spans="1:8">
@@ -9856,7 +9856,7 @@
         <v>-168205197.5365931</v>
       </c>
       <c r="H364">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="365" spans="1:8">
@@ -9882,7 +9882,7 @@
         <v>-168205197.5365931</v>
       </c>
       <c r="H365">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="366" spans="1:8">
@@ -9908,7 +9908,7 @@
         <v>-168205197.5365931</v>
       </c>
       <c r="H366">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="367" spans="1:8">
@@ -9934,7 +9934,7 @@
         <v>-168205197.5365931</v>
       </c>
       <c r="H367">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="368" spans="1:8">
@@ -9960,7 +9960,7 @@
         <v>-168205197.5365931</v>
       </c>
       <c r="H368">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="369" spans="1:8">
@@ -9986,7 +9986,7 @@
         <v>-168205197.5365931</v>
       </c>
       <c r="H369">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="370" spans="1:8">
@@ -10012,7 +10012,7 @@
         <v>-168205197.5365931</v>
       </c>
       <c r="H370">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="371" spans="1:8">
@@ -10064,7 +10064,7 @@
         <v>-168205332.3960931</v>
       </c>
       <c r="H372">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="373" spans="1:8">
@@ -10090,7 +10090,7 @@
         <v>-168205332.3960931</v>
       </c>
       <c r="H373">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="374" spans="1:8">
@@ -10116,7 +10116,7 @@
         <v>-168205202.1393931</v>
       </c>
       <c r="H374">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="375" spans="1:8">
@@ -10142,7 +10142,7 @@
         <v>-168215075.5006931</v>
       </c>
       <c r="H375">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="376" spans="1:8">
@@ -10168,7 +10168,7 @@
         <v>-168215075.5006931</v>
       </c>
       <c r="H376">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="377" spans="1:8">
@@ -10220,7 +10220,7 @@
         <v>-167665608.3343931</v>
       </c>
       <c r="H378">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="379" spans="1:8">
@@ -10246,7 +10246,7 @@
         <v>-167665608.3343931</v>
       </c>
       <c r="H379">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="380" spans="1:8">
@@ -10272,7 +10272,7 @@
         <v>-167665608.3343931</v>
       </c>
       <c r="H380">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="381" spans="1:8">
@@ -10298,7 +10298,7 @@
         <v>-167665608.3343931</v>
       </c>
       <c r="H381">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="382" spans="1:8">
@@ -10324,7 +10324,7 @@
         <v>-167665608.3343931</v>
       </c>
       <c r="H382">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="383" spans="1:8">
@@ -10350,7 +10350,7 @@
         <v>-167665608.3343931</v>
       </c>
       <c r="H383">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="384" spans="1:8">
@@ -10376,7 +10376,7 @@
         <v>-167665608.3343931</v>
       </c>
       <c r="H384">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="385" spans="1:8">
@@ -10402,7 +10402,7 @@
         <v>-167665608.3343931</v>
       </c>
       <c r="H385">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="386" spans="1:8">
@@ -10428,7 +10428,7 @@
         <v>-167665608.3343931</v>
       </c>
       <c r="H386">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="387" spans="1:8">
@@ -10454,7 +10454,7 @@
         <v>-167665608.3343931</v>
       </c>
       <c r="H387">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="388" spans="1:8">
@@ -10480,7 +10480,7 @@
         <v>-166637293.7632931</v>
       </c>
       <c r="H388">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="389" spans="1:8">
@@ -10506,7 +10506,7 @@
         <v>-166656660.6762931</v>
       </c>
       <c r="H389">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="390" spans="1:8">
@@ -10532,7 +10532,7 @@
         <v>-164883559.5562543</v>
       </c>
       <c r="H390">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="391" spans="1:8">
@@ -11416,7 +11416,7 @@
         <v>-168040660.2457591</v>
       </c>
       <c r="H424">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="425" spans="1:8">
@@ -11442,7 +11442,7 @@
         <v>-168040660.2457591</v>
       </c>
       <c r="H425">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="426" spans="1:8">
@@ -11468,7 +11468,7 @@
         <v>-168040660.2457591</v>
       </c>
       <c r="H426">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="427" spans="1:8">
@@ -11494,7 +11494,7 @@
         <v>-168040660.2457591</v>
       </c>
       <c r="H427">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="428" spans="1:8">
@@ -11520,7 +11520,7 @@
         <v>-169269612.2091591</v>
       </c>
       <c r="H428">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="429" spans="1:8">
@@ -11546,7 +11546,7 @@
         <v>-169269612.2091591</v>
       </c>
       <c r="H429">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="430" spans="1:8">
@@ -11572,7 +11572,7 @@
         <v>-169269500.0659591</v>
       </c>
       <c r="H430">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="431" spans="1:8">
@@ -11598,7 +11598,7 @@
         <v>-169375965.7084591</v>
       </c>
       <c r="H431">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="432" spans="1:8">
@@ -11962,7 +11962,7 @@
         <v>-165233102.8550591</v>
       </c>
       <c r="H445">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="446" spans="1:8">
@@ -11988,7 +11988,7 @@
         <v>-165233102.8550591</v>
       </c>
       <c r="H446">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="447" spans="1:8">
@@ -12014,7 +12014,7 @@
         <v>-165233102.8550591</v>
       </c>
       <c r="H447">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="448" spans="1:8">
@@ -12040,7 +12040,7 @@
         <v>-165233795.1118591</v>
       </c>
       <c r="H448">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="449" spans="1:8">
@@ -12066,7 +12066,7 @@
         <v>-165233795.1118591</v>
       </c>
       <c r="H449">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="450" spans="1:8">
@@ -12092,7 +12092,7 @@
         <v>-164301810.2013591</v>
       </c>
       <c r="H450">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="451" spans="1:8">
@@ -12118,7 +12118,7 @@
         <v>-164301810.2013591</v>
       </c>
       <c r="H451">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="452" spans="1:8">
@@ -12170,7 +12170,7 @@
         <v>-164301797.2761591</v>
       </c>
       <c r="H453">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="454" spans="1:8">
@@ -13470,7 +13470,7 @@
         <v>-179703041.6793829</v>
       </c>
       <c r="H503">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="504" spans="1:8">
